--- a/无人机车辆协同配送数据.xlsx
+++ b/无人机车辆协同配送数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\水课\人工智能基础\第一次大作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825CC24A-C1E4-4717-8231-0BF5C3750C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA118C7A-CE78-492E-A92D-C460C1A5D59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Y</t>
   </si>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>22.584514，113.131083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +433,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -770,10 +774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BBDBFE-0CD7-4A93-9F1A-B273293BA8B0}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -803,43 +807,47 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>40</v>
+        <v>0.33</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="25.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>0.25</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="25.5" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="25.5" customHeight="1">
@@ -892,9 +900,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="19.5" customHeight="1">
+    <row r="18" spans="1:3" ht="25.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="19.5" customHeight="1">
       <c r="A19" s="3"/>
@@ -903,6 +912,10 @@
     <row r="20" spans="1:3" ht="19.5" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
